--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1.337388535290631</v>
+        <v>3.695230659141776</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>2.698185999935002</v>
+        <v>3.28754610545829</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>2.721317932732118</v>
+        <v>3.541474767058375</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>1.42996494003683</v>
+        <v>4.694940535096802</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>2.181297666943298</v>
+        <v>2.755643412989106</v>
       </c>
     </row>
   </sheetData>
